--- a/output/DSPE605_output.xlsx
+++ b/output/DSPE605_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>Staff Report</t>
   </si>
@@ -63,6 +63,15 @@
     <t>Dr.M.Govindarajan</t>
   </si>
   <si>
+    <t>Course Code:</t>
+  </si>
+  <si>
+    <t>DSPE605</t>
+  </si>
+  <si>
+    <t>Max Marks:</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -78,16 +87,16 @@
     <t>Total Absent</t>
   </si>
   <si>
-    <t>Average Marks &amp; %</t>
-  </si>
-  <si>
-    <t>Less Than 15</t>
-  </si>
-  <si>
-    <t>Between 15-30</t>
-  </si>
-  <si>
-    <t>More than 30</t>
+    <t>Average Marks</t>
+  </si>
+  <si>
+    <t>Less Than 40%</t>
+  </si>
+  <si>
+    <t>Between 40 % - 75 %</t>
+  </si>
+  <si>
+    <t>More than 75%</t>
   </si>
   <si>
     <t>S.No.</t>
@@ -144,9 +153,6 @@
     <t>Varsha V</t>
   </si>
   <si>
-    <t>Rajadurai P</t>
-  </si>
-  <si>
     <t>Aravind S</t>
   </si>
   <si>
@@ -160,6 +166,24 @@
   </si>
   <si>
     <t>Preethiga S</t>
+  </si>
+  <si>
+    <t>Hitesh Kumar K A</t>
+  </si>
+  <si>
+    <t>Naveena A</t>
+  </si>
+  <si>
+    <t>Jaikrishnan V</t>
+  </si>
+  <si>
+    <t>Jananika B</t>
+  </si>
+  <si>
+    <t>Kalaivani S</t>
+  </si>
+  <si>
+    <t>Ajay S</t>
   </si>
 </sst>
 </file>
@@ -644,17 +668,35 @@
       </c>
       <c r="C10" s="2"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>40</v>
+      </c>
+    </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2">
         <v>51</v>
@@ -662,7 +704,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <v>51</v>
@@ -670,7 +712,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -678,15 +720,15 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>19.03921568627451</v>
+        <v>19.04</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
@@ -694,7 +736,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2">
         <v>31</v>
@@ -702,7 +744,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -718,7 +760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -726,16 +768,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -746,7 +788,7 @@
         <v>2236150003</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -760,7 +802,7 @@
         <v>2136110035</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -774,7 +816,7 @@
         <v>2136110044</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -788,7 +830,7 @@
         <v>2236150002</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -802,7 +844,7 @@
         <v>2136110011</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -816,7 +858,7 @@
         <v>2136110043</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -830,7 +872,7 @@
         <v>2136110002</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -844,7 +886,7 @@
         <v>2136110029</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -858,7 +900,7 @@
         <v>2136110039</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -872,7 +914,7 @@
         <v>2136110046</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -886,7 +928,7 @@
         <v>2136110010</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>14</v>
@@ -900,7 +942,7 @@
         <v>2136110024</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -914,7 +956,7 @@
         <v>2136110038</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -928,24 +970,10 @@
         <v>2136110045</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>41</v>
-      </c>
-      <c r="B16">
-        <v>2136110042</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +983,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,16 +991,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -983,7 +1011,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -997,7 +1025,7 @@
         <v>2136110003</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1011,7 +1039,7 @@
         <v>2136110021</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1025,7 +1053,7 @@
         <v>2136110016</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>30</v>
@@ -1039,10 +1067,94 @@
         <v>2136110040</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>2136110031</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2136110013</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>2136110032</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2136110008</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2136110009</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2136110026</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/DSPE605_output.xlsx
+++ b/output/DSPE605_output.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Staff Report</t>
   </si>
@@ -93,7 +93,7 @@
     <t>Less Than 40%</t>
   </si>
   <si>
-    <t>Between 40 % - 75 %</t>
+    <t>Between 40% - 75%</t>
   </si>
   <si>
     <t>More than 75%</t>
@@ -153,6 +153,9 @@
     <t>Varsha V</t>
   </si>
   <si>
+    <t>Rajadurai P</t>
+  </si>
+  <si>
     <t>Aravind S</t>
   </si>
   <si>
@@ -160,30 +163,6 @@
   </si>
   <si>
     <t>Subhashini S</t>
-  </si>
-  <si>
-    <t>Nithya Sri R</t>
-  </si>
-  <si>
-    <t>Preethiga S</t>
-  </si>
-  <si>
-    <t>Hitesh Kumar K A</t>
-  </si>
-  <si>
-    <t>Naveena A</t>
-  </si>
-  <si>
-    <t>Jaikrishnan V</t>
-  </si>
-  <si>
-    <t>Jananika B</t>
-  </si>
-  <si>
-    <t>Kalaivani S</t>
-  </si>
-  <si>
-    <t>Ajay S</t>
   </si>
 </sst>
 </file>
@@ -582,7 +561,7 @@
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35" customHeight="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +586,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="35" customHeight="1">
+    <row r="4" spans="1:6">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -760,7 +739,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -976,6 +955,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>2136110042</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -983,7 +976,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1011,7 +1004,7 @@
         <v>2136110001</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>34</v>
@@ -1025,7 +1018,7 @@
         <v>2136110003</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>32</v>
@@ -1039,122 +1032,10 @@
         <v>2136110021</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>2136110016</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>39</v>
-      </c>
-      <c r="B6">
-        <v>2136110040</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>2136110031</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>2136110013</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>31</v>
-      </c>
-      <c r="B9">
-        <v>2136110032</v>
-      </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2136110008</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2136110009</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>2136110026</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
